--- a/mycotacao/data/temp_cotacao.xlsx
+++ b/mycotacao/data/temp_cotacao.xlsx
@@ -426,7 +426,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45589.05625964975</v>
+        <v>45598.96345046464</v>
       </c>
     </row>
     <row r="4">

--- a/mycotacao/data/temp_cotacao.xlsx
+++ b/mycotacao/data/temp_cotacao.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cotacao" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,12 +28,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -48,9 +63,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,15 +455,94 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>45598.96345046464</v>
+      <c r="B2" s="1" t="n">
+        <v>45599.76622331099</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bem Vindo ao OpenPyXL</t>
-        </is>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cotaçao1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Copacol</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>JBS</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Master</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Seara</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Frango a passarinho</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.611000000000001</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>15.036</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Frango inteiro</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>8.038500000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>8.3895</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>4.905</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>7.518</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Coxa com sobrecoxa</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>4.833</v>
       </c>
     </row>
   </sheetData>
